--- a/term/ValueSet-KLChangeValueCodesFFB.xlsx
+++ b/term/ValueSet-KLChangeValueCodesFFB.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T15:43:23+02:00</t>
+    <t>2023-04-28T21:13:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLChangeValueCodesFFB.xlsx
+++ b/term/ValueSet-KLChangeValueCodesFFB.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T21:13:26+02:00</t>
+    <t>2023-05-07T23:02:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLChangeValueCodesFFB.xlsx
+++ b/term/ValueSet-KLChangeValueCodesFFB.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:02:44+02:00</t>
+    <t>2023-05-09T23:50:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLChangeValueCodesFFB.xlsx
+++ b/term/ValueSet-KLChangeValueCodesFFB.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T23:50:17+02:00</t>
+    <t>2023-06-07T11:52:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLChangeValueCodesFFB.xlsx
+++ b/term/ValueSet-KLChangeValueCodesFFB.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-07T11:52:14+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -233,10 +233,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/term/ValueSet-KLChangeValueCodesFFB.xlsx
+++ b/term/ValueSet-KLChangeValueCodesFFB.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-01T22:25:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>

--- a/term/ValueSet-KLChangeValueCodesFFB.xlsx
+++ b/term/ValueSet-KLChangeValueCodesFFB.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-01T22:25:19+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Kommunernes Landsforening (http://kl.dk)</t>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>

--- a/term/ValueSet-KLChangeValueCodesFFB.xlsx
+++ b/term/ValueSet-KLChangeValueCodesFFB.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-03T10:45:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>

--- a/term/ValueSet-KLChangeValueCodesFFB.xlsx
+++ b/term/ValueSet-KLChangeValueCodesFFB.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T10:45:43+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Kommunernes Landsforening (http://kl.dk)</t>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>

--- a/term/ValueSet-KLChangeValueCodesFFB.xlsx
+++ b/term/ValueSet-KLChangeValueCodesFFB.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-04T14:59:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>

--- a/term/ValueSet-KLChangeValueCodesFFB.xlsx
+++ b/term/ValueSet-KLChangeValueCodesFFB.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:59:10+02:00</t>
+    <t>2024-06-13T16:58:41+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLChangeValueCodesFFB.xlsx
+++ b/term/ValueSet-KLChangeValueCodesFFB.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from FFB" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T16:58:41+02:00</t>
+    <t>2024-10-31T13:18:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,6 +75,12 @@
     <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -103,9 +109,6 @@
   </si>
   <si>
     <t>b5257b2d-0fbf-4d00-bf38-d298c8568116</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -245,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -347,20 +350,28 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -385,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -393,29 +404,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
